--- a/Data/Analysis/qualitative_analysis/data/colorcontrast_qualitative_analysis.xlsx
+++ b/Data/Analysis/qualitative_analysis/data/colorcontrast_qualitative_analysis.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10608"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10713"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marco/Documents/1. Studium/TUM/Bachelor-Thesis/Practical/Data/Analysis/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marco/Documents/1. Studium/TUM/Bachelor-Thesis/Practical/Data/Analysis/qualitative_analysis/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDB04810-C3C5-FD46-8DA6-D7A82AE0AB8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA3ACDD9-8537-6943-95FF-EBDBFE7F1B96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="760" windowWidth="22020" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>value</t>
   </si>
@@ -35,6 +35,12 @@
   </si>
   <si>
     <t>openai.amount_small_fonts</t>
+  </si>
+  <si>
+    <t>qwen.amount_small_fonts</t>
+  </si>
+  <si>
+    <t>qwen.amount_large_fonts</t>
   </si>
 </sst>
 </file>
@@ -402,10 +408,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A6" sqref="A6:B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -450,6 +456,22 @@
         <v>15100</v>
       </c>
     </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>1944</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>13953</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
